--- a/Input/People.xlsx
+++ b/Input/People.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dxcportal-my.sharepoint.com/personal/jeremiahpaul_viterbo_dxc_com/Documents/Documents/UiPath/Bootcamp/Final Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\npanda5\Documents\UiPath\Activity\FinalProjectDispatcher\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CA125CA-C4CF-4184-890B-938F8684624A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51DD0040-E887-4B22-BD9E-E56E663983B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5FFD380D-D642-4724-BC78-9066B5A00960}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{5FFD380D-D642-4724-BC78-9066B5A00960}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Name</t>
   </si>
@@ -45,12 +45,6 @@
   </si>
   <si>
     <t>Carl</t>
-  </si>
-  <si>
-    <t>Kim</t>
-  </si>
-  <si>
-    <t>Nikki</t>
   </si>
 </sst>
 </file>
@@ -402,37 +396,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E422B59-38CE-4A1C-A061-2ED6FC79F0FB}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C8" sqref="A4:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
